--- a/FieldMapping.xlsx
+++ b/FieldMapping.xlsx
@@ -433,7 +433,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="106" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -466,7 +466,16 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{
+  "source_field": "employee.name",
+  "confidence": 1.0,
+  "mapping_type": "Direct",
+  "logic": ""
+}</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -476,13 +485,22 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{
+  "source_field": "employee.id",
+  "confidence": 1.0,
+  "mapping_type": "Direct",
+  "logic": ""
+}</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B2 B3" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"ISA01,ISA02,ISA03,ISA04,ISA05,ISA06,ISA07,ISA08,ISA09,ISA10,ISA11,ISA12,ISA13,ISA14,ISA15,ISA16,GS01,GS02,GS03,GS04,GS05,GS06,GS07,GS08"</formula1>
+      <formula1>"employee.name,employee.id"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
